--- a/biology/Médecine/Sylvie_Angel/Sylvie_Angel.xlsx
+++ b/biology/Médecine/Sylvie_Angel/Sylvie_Angel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sylvie Angel, née le 19 juillet 1952 à Paris, est une psychiatre française.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fait ses études de médecine à Paris et est interne des hôpitaux psychiatriques de l’Île-de-France. Elle exerce comme attachée de pédopsychiatrie de 1979 à 1981, obtient un CES de psychiatrie, option psychiatrie de l’enfant et de l’adolescent et un DEA de psychopathologie clinique. Elle effectue un complément de formation au Mental Research Institute of Palo Alto, à l'université Stanford en Basic Hypnotherapy et thérapie brève, dans le service du professeur Paul Watzlawick. Elle fait un parcours de psychanalyse et de thérapie familiale systémique.
-Elle crée en 1980 le centre de thérapie familiale Monceau à Paris[1], où elle collabore avec Pierre Angel. Avec Pierre Angel et Bernard Geberowicz, elle mène ces années-là des études sur les dépendances ou toxicomanies, en liaison avec leur contexte familial[2]. Elle est cofondatrice et directrice médicale des centres Pluralis[3] et Pluridis[4], ainsi que coprésidente de la fondation française des amis du centre médical Chaim Sheba (FAST)[5].
-Sylvie Angel a un intérêt particulier pour l'écriture. Elle est directrice de collection aux Éditions Robert Laffont (collection « réponses ») de 1998 à 2008[4].
+Elle crée en 1980 le centre de thérapie familiale Monceau à Paris, où elle collabore avec Pierre Angel. Avec Pierre Angel et Bernard Geberowicz, elle mène ces années-là des études sur les dépendances ou toxicomanies, en liaison avec leur contexte familial. Elle est cofondatrice et directrice médicale des centres Pluralis et Pluridis, ainsi que coprésidente de la fondation française des amis du centre médical Chaim Sheba (FAST).
+Sylvie Angel a un intérêt particulier pour l'écriture. Elle est directrice de collection aux Éditions Robert Laffont (collection « réponses ») de 1998 à 2008.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalière de la Légion d'honneur (2001)[réf. nécessaire]</t>
         </is>
@@ -574,26 +590,28 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La Poudre et la fumée. Les toxicomanes : prévenir et soigner, Sylvie et Pierre Angel, Éditions Acropole, 1987
 Entre dépendances et libertés, les toxicomanies, Sylvie et Pierre Angel, Éditions Echo, 1987
 Familles et toxicomanies. Une approche systémique, Sylvie et Pierre Angel, Éditions universitaires, 1989
 Décrochez ! Tabac, alcool, médicaments, drogues, TF1 Éditions, Édition no 1, 1992
 Des frères et des sœurs, Paris, Robert Laffont, 1996
-Comment bien choisir son psy, Sylvie et Pierre Angel, Éditions Robert Laffont, 1999[6]
+Comment bien choisir son psy, Sylvie et Pierre Angel, Éditions Robert Laffont, 1999
 Mieux vivre, mode d’emploi, Paris, Éditions Larousse, 2002
 Ce que je ne peux pas vous dire, Collectif, Oh ! Éditions, 2003
 Ah ! Quelle famille, Paris, Éditions Robert Laffont, 2003
 Les toxicomanes et leurs familles, Sylvie et Pierre Angel, Paris, Éditions Armand Colin, 2003
 Bien choisir le mode de garde de votre enfant, Paris, Éditions Marabout, 2003
 Décrochez !, Paris, Éditions Marabout, 2004
-Les mères juives n’existent pas, mais alors qu’est-ce qui existe ? Aldo Naouri, Sylvie Angel et Philippe Gutton, Paris, Éditions Odile Jacob, 2005[7]
+Les mères juives n’existent pas, mais alors qu’est-ce qui existe ? Aldo Naouri, Sylvie Angel et Philippe Gutton, Paris, Éditions Odile Jacob, 2005
 La deuxième chance en amour, Sylvie Angel, Stéphane Clerget, Paris, Éditions Odile Jacob, 2006
 Mieux vivre ma vie, Paris, Éditions Larousse, 2008
-Bien choisir sa psychothérapie, Sylvie et Pierre Angel, Éditions Larousse, 2010[8]
+Bien choisir sa psychothérapie, Sylvie et Pierre Angel, Éditions Larousse, 2010
 Le guide psycho, Paris, Éditions Larousse, 2014
-Réfléchissez avant de divorcer, Paris, Éditions Odile Jacob, 2016[9],[10]
+Réfléchissez avant de divorcer, Paris, Éditions Odile Jacob, 2016,
 Éviter les erreurs médicales grâce à la simulation, Sylvie et Pierre Angel, Éditions Odile Jacob, 2016</t>
         </is>
       </c>
